--- a/app/reports/templates/agreement_pril_1_2.xlsx
+++ b/app/reports/templates/agreement_pril_1_2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t xml:space="preserve">Приложение № 1</t>
   </si>
@@ -165,18 +165,6 @@
   <si>
     <t xml:space="preserve">дата достижения результата (дд.мм.гг)</t>
   </si>
-  <si>
-    <t xml:space="preserve">(задача федерального проекта")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(результат регионального проекта)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.</t>
-  </si>
 </sst>
 </file>
 
@@ -185,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -284,13 +272,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -312,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -325,20 +306,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -367,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,7 +375,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -436,19 +403,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,38 +452,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -528,7 +479,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,14 +507,14 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.71"/>
@@ -572,7 +523,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="13" style="2" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="20" style="0" width="7.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="11.52"/>
@@ -939,9 +890,9 @@
         <v>22</v>
       </c>
       <c r="L22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
@@ -955,59 +906,59 @@
         <v>24</v>
       </c>
       <c r="L23" s="19"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="C24" s="22"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="16" t="s">
         <v>25</v>
       </c>
       <c r="L24" s="19"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="L25" s="28" t="s">
+      <c r="H25" s="26"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="L25" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="29" t="s">
+      <c r="N25" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29" t="s">
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="R25" s="29"/>
+      <c r="R25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -1055,29 +1006,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="2.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -1234,20 +1185,65 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="F12" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
@@ -1334,7 +1330,7 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="n">
+      <c r="A17" s="29" t="n">
         <v>1</v>
       </c>
       <c r="B17" s="12" t="n">
@@ -1368,168 +1364,116 @@
       </c>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="9"/>
+      <c r="G22" s="31"/>
+      <c r="I22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="P22" s="31"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="9"/>
+      <c r="G23" s="31"/>
+      <c r="I23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="P23" s="31"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="I25" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="36"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="26" t="s">
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="31"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27" t="s">
+      <c r="F25" s="26"/>
+      <c r="G25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40" t="s">
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40" t="s">
+      <c r="K25" s="26"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N27" s="40"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="41" t="s">
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-    </row>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="35">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -1537,6 +1481,9 @@
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="A7:Q7"/>
     <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="F12:R12"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -1552,26 +1499,16 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="M22:N24"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
